--- a/config_11.24/activity_016_cwk_config.xlsx
+++ b/config_11.24/activity_016_cwk_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duchao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="8895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task_info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>在财神消消乐中累计赢金1000万</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,60 @@
   </si>
   <si>
     <t>在龙王争霸中累计赢金8000万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shxxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csxxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qql_cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qql_cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shxxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg</t>
+  </si>
+  <si>
+    <t>ttl</t>
+  </si>
+  <si>
+    <t>by</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +218,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,7 +565,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -518,8 +581,11 @@
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -535,8 +601,11 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -552,8 +621,11 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -569,8 +641,11 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -586,8 +661,11 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -603,8 +681,11 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -620,8 +701,11 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -637,8 +721,11 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -654,8 +741,11 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -671,8 +761,11 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -688,8 +781,11 @@
       <c r="E11" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -705,8 +801,11 @@
       <c r="E12" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -722,8 +821,11 @@
       <c r="E13" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -739,8 +841,11 @@
       <c r="E14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -756,8 +861,11 @@
       <c r="E15" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -773,8 +881,11 @@
       <c r="E16" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -790,8 +901,11 @@
       <c r="E17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -807,8 +921,11 @@
       <c r="E18" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -823,6 +940,9 @@
       </c>
       <c r="E19" s="2">
         <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -833,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -844,9 +964,10 @@
     <col min="3" max="3" width="47.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -862,8 +983,11 @@
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -879,8 +1003,11 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -896,8 +1023,11 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -913,8 +1043,11 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -930,8 +1063,11 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -947,8 +1083,11 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -964,8 +1103,11 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -981,8 +1123,11 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -998,8 +1143,11 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1015,8 +1163,11 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1032,8 +1183,11 @@
       <c r="E11" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1049,8 +1203,11 @@
       <c r="E12" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1066,8 +1223,11 @@
       <c r="E13" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1083,8 +1243,11 @@
       <c r="E14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1100,8 +1263,11 @@
       <c r="E15" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1117,8 +1283,11 @@
       <c r="E16" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1134,8 +1303,11 @@
       <c r="E17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1151,8 +1323,11 @@
       <c r="E18" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1167,11 +1342,15 @@
       </c>
       <c r="E19" s="2">
         <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1256,11 +1435,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
